--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_homebuilding.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_homebuilding.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.273</v>
+        <v>1.303</v>
       </c>
       <c r="G2">
-        <v>-0.1096491228070176</v>
+        <v>-0.08106060606060606</v>
       </c>
       <c r="H2">
-        <v>-0.1096491228070176</v>
+        <v>-0.08106060606060606</v>
       </c>
       <c r="I2">
-        <v>-0.1219177268509799</v>
+        <v>-0.01174242424242424</v>
       </c>
       <c r="J2">
-        <v>-0.1219177268509799</v>
+        <v>-0.01174242424242424</v>
       </c>
       <c r="K2">
-        <v>-1.16</v>
+        <v>-0.944</v>
       </c>
       <c r="L2">
-        <v>-0.5087719298245614</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.103</v>
+        <v>0.635</v>
       </c>
       <c r="V2">
-        <v>0.04557522123893806</v>
+        <v>0.1579601990049752</v>
       </c>
       <c r="W2">
-        <v>-6.236559139784946</v>
+        <v>0.9583756345177664</v>
       </c>
       <c r="X2">
-        <v>0.3755061842857454</v>
+        <v>0.3041594403114543</v>
       </c>
       <c r="Y2">
-        <v>-6.612065324070691</v>
+        <v>0.6542161942063121</v>
       </c>
       <c r="Z2">
-        <v>0.5584317941479209</v>
+        <v>0.5429864253393666</v>
       </c>
       <c r="AA2">
-        <v>-0.06808273494382887</v>
+        <v>-0.006375976964212258</v>
       </c>
       <c r="AB2">
-        <v>0.1144850650973068</v>
+        <v>0.1609555533657016</v>
       </c>
       <c r="AC2">
-        <v>-0.1825678000411357</v>
+        <v>-0.1673315303299138</v>
       </c>
       <c r="AD2">
-        <v>10.8</v>
+        <v>6.28</v>
       </c>
       <c r="AE2">
-        <v>0.1248620861011712</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.92486208610117</v>
+        <v>6.28</v>
       </c>
       <c r="AG2">
-        <v>10.82186208610117</v>
+        <v>5.645</v>
       </c>
       <c r="AH2">
-        <v>0.8285913052983406</v>
+        <v>0.6097087378640776</v>
       </c>
       <c r="AI2">
-        <v>0.9428663260958209</v>
+        <v>1.04876419505678</v>
       </c>
       <c r="AJ2">
-        <v>0.8272417194795887</v>
+        <v>0.5840662183135025</v>
       </c>
       <c r="AK2">
-        <v>0.9423538880006915</v>
+        <v>1.054548851111526</v>
       </c>
       <c r="AL2">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AM2">
-        <v>1.016</v>
+        <v>0.9</v>
       </c>
       <c r="AN2">
-        <v>-48.64864864864865</v>
+        <v>-1570</v>
       </c>
       <c r="AO2">
-        <v>-0.2805555555555555</v>
+        <v>-0.03163265306122449</v>
       </c>
       <c r="AP2">
-        <v>-48.74712651396923</v>
+        <v>-1411.25</v>
       </c>
       <c r="AQ2">
-        <v>-0.2982283464566929</v>
+        <v>-0.03444444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.273</v>
+        <v>1.303</v>
       </c>
       <c r="G3">
-        <v>-0.1096491228070176</v>
+        <v>-0.08106060606060606</v>
       </c>
       <c r="H3">
-        <v>-0.1096491228070176</v>
+        <v>-0.08106060606060606</v>
       </c>
       <c r="I3">
-        <v>-0.1219177268509799</v>
+        <v>-0.01174242424242424</v>
       </c>
       <c r="J3">
-        <v>-0.1219177268509799</v>
+        <v>-0.01174242424242424</v>
       </c>
       <c r="K3">
-        <v>-1.16</v>
+        <v>-0.944</v>
       </c>
       <c r="L3">
-        <v>-0.5087719298245614</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.103</v>
+        <v>0.635</v>
       </c>
       <c r="V3">
-        <v>0.04557522123893806</v>
+        <v>0.1579601990049752</v>
       </c>
       <c r="W3">
-        <v>-6.236559139784946</v>
+        <v>0.9583756345177664</v>
       </c>
       <c r="X3">
-        <v>0.3755061842857454</v>
+        <v>0.3041594403114543</v>
       </c>
       <c r="Y3">
-        <v>-6.612065324070691</v>
+        <v>0.6542161942063121</v>
       </c>
       <c r="Z3">
-        <v>0.5584317941479209</v>
+        <v>0.5429864253393666</v>
       </c>
       <c r="AA3">
-        <v>-0.06808273494382887</v>
+        <v>-0.006375976964212258</v>
       </c>
       <c r="AB3">
-        <v>0.1144850650973068</v>
+        <v>0.1609555533657016</v>
       </c>
       <c r="AC3">
-        <v>-0.1825678000411357</v>
+        <v>-0.1673315303299138</v>
       </c>
       <c r="AD3">
-        <v>10.8</v>
+        <v>6.28</v>
       </c>
       <c r="AE3">
-        <v>0.1248620861011712</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.92486208610117</v>
+        <v>6.28</v>
       </c>
       <c r="AG3">
-        <v>10.82186208610117</v>
+        <v>5.645</v>
       </c>
       <c r="AH3">
-        <v>0.8285913052983406</v>
+        <v>0.6097087378640776</v>
       </c>
       <c r="AI3">
-        <v>0.9428663260958209</v>
+        <v>1.04876419505678</v>
       </c>
       <c r="AJ3">
-        <v>0.8272417194795887</v>
+        <v>0.5840662183135025</v>
       </c>
       <c r="AK3">
-        <v>0.9423538880006915</v>
+        <v>1.054548851111526</v>
       </c>
       <c r="AL3">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AM3">
-        <v>1.016</v>
+        <v>0.9</v>
       </c>
       <c r="AN3">
-        <v>-48.64864864864865</v>
+        <v>-1570</v>
       </c>
       <c r="AO3">
-        <v>-0.2805555555555555</v>
+        <v>-0.03163265306122449</v>
       </c>
       <c r="AP3">
-        <v>-48.74712651396923</v>
+        <v>-1411.25</v>
       </c>
       <c r="AQ3">
-        <v>-0.2982283464566929</v>
+        <v>-0.03444444444444444</v>
       </c>
     </row>
   </sheetData>
